--- a/PeerEvaluationTemplate_3Person.xlsx
+++ b/PeerEvaluationTemplate_3Person.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walterm\Dropbox\Classes\MAE151W22\GradesRosters\PeerEval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walterm\Documents\GitProjects\PeerEvalTemplateCreator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B648BD14-8BFE-49A7-B141-772F81CD2030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94757A96-EB7D-42C1-A5F1-141981F1EA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="23295" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="PeerRating" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -26,17 +25,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Rating Descriptions (provide whole number ratings (5, 4, 3, 2, or 1) in columns for each each member including yourself)</t>
-  </si>
-  <si>
     <t>Having Relevant Knowledge, Skills, and Abilities (KSAs)</t>
-  </si>
-  <si>
-    <t>5: Demonstrates KSAs to do excellent work, acquires new KSA to help team, can perform any role on team if necessary
-4: Between 5 above and 3 below
-3: Demonstrates sufficient KSA to contribute to team, acquires KSAs to meet requirements, able to perform other tasks
-2: Between 3 above and 1 below
-1: Missing basic qualification, unable to develop KSAs to contribute to team, unable to peform any one elses duties</t>
   </si>
   <si>
     <t>Contributing to the Team’s Work</t>
@@ -50,25 +39,10 @@
     <t>Interacting with Teammates</t>
   </si>
   <si>
-    <t>5: Is interested in teammates ideas and contributions, makes sure everyone is informed, is encouraging, enthusiastic and asks for feedback/suggestions
-3: Listens and respects teammate contributsions, communicates clearly, shares info, participates fully, reacts and responds to feedback/suggestions
-1: Interrupts, ignores, bosses, or makes fun, takes action without input, does not share, complains, makes excuses, does not interact, is defensive</t>
-  </si>
-  <si>
     <t>Keeping the Team on Track</t>
   </si>
   <si>
-    <t>5: Monitors teams' progress, makes sure teammates are progressing, gives specific, timely, and constructive feedback
-3: Knows what everyone on the team should be doing and notices problems, alerts teammates and suggests solutions with sucess is threatened
-1: Unaware if team is meeting goals, does not pay attention to teammates progress, avoids discussing team problems even when obvious</t>
-  </si>
-  <si>
     <t>Expecting Quality</t>
-  </si>
-  <si>
-    <t>5: Motivates team to do excellent work, cares about excellent work even without reward, believes in team's ability to do excellent work
-3: Encouarges good work to meet requirements, believes team can meet its responsiblities
-1: Satisfied even if not all requirements are met,  avoids work, doubts team can meet requirements</t>
   </si>
   <si>
     <t xml:space="preserve">Comments (REQUIRED): For each person (including yourself), in the corresponding shaded box below, comment on how the teammate can improve on his/her worst rating </t>
@@ -81,6 +55,31 @@
   </si>
   <si>
     <t>&lt;-- C3 Person</t>
+  </si>
+  <si>
+    <t>5: Demonstrates KSAs to do excellent work, acquires new KSA to help team, can perform any role on team if necessary
+4: Between 5 above and 3 below
+3: Demonstrates sufficient KSA to contribute to team, acquires KSAs to meet requirements, able to perform other tasks
+2: Between 3 above and 1 below
+1: Missing basic qualification, unable to develop KSAs to contribute to team, unable to perform any one else's duties</t>
+  </si>
+  <si>
+    <t>5: Is interested in teammates ideas and contributions, makes sure everyone is informed, is encouraging, enthusiastic and asks for feedback/suggestions
+3: Listens and respects teammate contributions, communicates clearly, shares info, participates fully, reacts and responds to feedback/suggestions
+1: Interrupts, ignores, bosses, or makes fun, takes action without input, does not share, complains, makes excuses, does not interact, is defensive</t>
+  </si>
+  <si>
+    <t>5: Monitors teams' progress, makes sure teammates are progressing, gives specific, timely, and constructive feedback
+3: Knows what everyone on the team should be doing and notices problems, alerts teammates and suggests solutions with success is threatened
+1: Unaware if team is meeting goals, does not pay attention to teammates progress, avoids discussing team problems even when obvious</t>
+  </si>
+  <si>
+    <t>5: Motivates team to do excellent work, cares about excellent work even without reward, believes in team's ability to do excellent work
+3: Encourages good work to meet requirements, believes team can meet its responsibilities
+1: Satisfied even if not all requirements are met,  avoids work, doubts team can meet requirements</t>
+  </si>
+  <si>
+    <t>Rating Descriptions (provide whole number ratings (5, 4, 3, 2, or 1) in columns for each member including yourself)</t>
   </si>
 </sst>
 </file>
@@ -313,14 +312,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -352,9 +351,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -364,10 +362,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -388,9 +386,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -428,7 +426,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -534,7 +532,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -676,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,7 +688,7 @@
   <dimension ref="A1:V993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -701,11 +699,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -729,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -737,10 +735,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -765,10 +763,10 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -793,10 +791,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -821,10 +819,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -849,10 +847,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -874,107 +872,36 @@
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="19" t="s">
-        <v>13</v>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" t="s">
+        <v>8</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="19" t="s">
-        <v>14</v>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" t="s">
+        <v>9</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="19" t="s">
-        <v>15</v>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" t="s">
+        <v>10</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
